--- a/biology/Zoologie/Funambulus_pennantii/Funambulus_pennantii.xlsx
+++ b/biology/Zoologie/Funambulus_pennantii/Funambulus_pennantii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Funambulus pennantii est une espèce de rongeur sciuromorphe de la famille des Sciuridae couramment qualifié d'écureuil.
 </t>
@@ -511,9 +523,11 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet écureuil est endémique de l'Asie. Il se rencontre dans les pays suivants : au Bangladesh, en Inde, en Iran, au Népal et au Pakistan[1]. Il a été introduit en Australie, aux Fidji, en Guadeloupe[2], à Nauru, en Nouvelle-Calédonie[réf. nécessaire], en Nouvelle-Guinée occidentale, en Papouasie-Nouvelle-Guinée, à Pohnpei, aux Samoa, aux Tonga et à Vanuatu[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet écureuil est endémique de l'Asie. Il se rencontre dans les pays suivants : au Bangladesh, en Inde, en Iran, au Népal et au Pakistan. Il a été introduit en Australie, aux Fidji, en Guadeloupe, à Nauru, en Nouvelle-Calédonie[réf. nécessaire], en Nouvelle-Guinée occidentale, en Papouasie-Nouvelle-Guinée, à Pohnpei, aux Samoa, aux Tonga et à Vanuatu.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les noms vulgaires attestés en français sont l'Écureuil aux rayures[4], le Funambule à cinq raies claires, le Funambule du Nord[2], le Rat palmiste à cinq raies claires et le Rat palmiste du Nord[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les noms vulgaires attestés en français sont l'Écureuil aux rayures, le Funambule à cinq raies claires, le Funambule du Nord, le Rat palmiste à cinq raies claires et le Rat palmiste du Nord.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite en 1905 par le naturaliste britannique Robert Charles Wroughton[6]. Les sous-espèces attestées sont[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette espèce a été décrite en 1905 par le naturaliste britannique Robert Charles Wroughton. Les sous-espèces attestées sont :
 Funambulus pennantii argentescens Wroughton, 1905
 Funambulus pennantii pennantii Wroughton, 1905</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Funambulus pennantii et l'Homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Funambulus pennantii est considéré comme de « préoccupation mineure » par l'Union internationale pour la conservation de la nature[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Funambulus pennantii est considéré comme de « préoccupation mineure » par l'Union internationale pour la conservation de la nature.
 </t>
         </is>
       </c>
